--- a/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>198917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>177688</v>
+        <v>177039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>218817</v>
+        <v>221549</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5420848960742636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4842320131428363</v>
+        <v>0.4824639449637896</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5963172796726426</v>
+        <v>0.6037615240261012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -762,19 +762,19 @@
         <v>144091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129297</v>
+        <v>129949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158676</v>
+        <v>158549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5238595364760804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.470074411821636</v>
+        <v>0.472443798530677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.576884423577475</v>
+        <v>0.5764217336069017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>368</v>
@@ -783,19 +783,19 @@
         <v>343008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>317487</v>
+        <v>317457</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368130</v>
+        <v>368683</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5342765315464365</v>
+        <v>0.5342765315464364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4945234891667406</v>
+        <v>0.4944774943712033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5734070639529421</v>
+        <v>0.5742673840000377</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>80384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65225</v>
+        <v>65870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96425</v>
+        <v>98787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2190600219924949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1777496701269499</v>
+        <v>0.1795065969702402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.262775728962761</v>
+        <v>0.2692129355785748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -833,19 +833,19 @@
         <v>75069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63108</v>
+        <v>63329</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87743</v>
+        <v>88066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2729199630536993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2294371298555105</v>
+        <v>0.230238606163946</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3189996978398371</v>
+        <v>0.3201734652989702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>212</v>
@@ -854,19 +854,19 @@
         <v>155452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134920</v>
+        <v>133278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177093</v>
+        <v>176017</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2421354543858889</v>
+        <v>0.2421354543858888</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2101539266547346</v>
+        <v>0.2075961737852923</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2758440691520437</v>
+        <v>0.2741677323518029</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>29440</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20248</v>
+        <v>20007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42070</v>
+        <v>41612</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08023060250857206</v>
+        <v>0.08023060250857204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05518032854948606</v>
+        <v>0.05452221265564315</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.114649296397605</v>
+        <v>0.1133993207864193</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -904,19 +904,19 @@
         <v>20541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13867</v>
+        <v>13910</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28421</v>
+        <v>28329</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07467972423440161</v>
+        <v>0.0746797242344016</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05041550583961613</v>
+        <v>0.05057145921340767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.103327552949165</v>
+        <v>0.102994663241876</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -925,19 +925,19 @@
         <v>49982</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38893</v>
+        <v>38102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66907</v>
+        <v>63750</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07785241727821644</v>
+        <v>0.07785241727821643</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06058123333975472</v>
+        <v>0.05934878782378613</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1042155897352566</v>
+        <v>0.09929878202570118</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>35178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24459</v>
+        <v>24566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51512</v>
+        <v>51262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09586611323507067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06665437461759141</v>
+        <v>0.06694817424611293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1403807496239618</v>
+        <v>0.1396991448323604</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -975,19 +975,19 @@
         <v>16429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10737</v>
+        <v>10430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23010</v>
+        <v>23380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05972856736764388</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03903560703026511</v>
+        <v>0.03791863338652492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08365447176035594</v>
+        <v>0.08499992570128455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -996,19 +996,19 @@
         <v>51607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38015</v>
+        <v>39233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68622</v>
+        <v>70294</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08038355829541007</v>
+        <v>0.08038355829541005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05921353803118772</v>
+        <v>0.0611098876315304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1068867527165464</v>
+        <v>0.1094913560411878</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>14982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8055</v>
+        <v>7718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30565</v>
+        <v>30592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04082881803862345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02195235359305028</v>
+        <v>0.02103207612017368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08329408039401452</v>
+        <v>0.08336764128346423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1046,19 +1046,19 @@
         <v>15857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8980</v>
+        <v>9108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27036</v>
+        <v>27989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05764969316272676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03264724503047953</v>
+        <v>0.03311260188471915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09829296047352849</v>
+        <v>0.1017569915978789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1067,19 +1067,19 @@
         <v>30839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19521</v>
+        <v>20725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46715</v>
+        <v>47390</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04803545360257422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0304065742614683</v>
+        <v>0.03228230876696777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07276364623497851</v>
+        <v>0.07381502375323672</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>8047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3729</v>
+        <v>3917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15036</v>
+        <v>15428</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0219295481509753</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01016240652997653</v>
+        <v>0.01067326762932944</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04097613456835679</v>
+        <v>0.04204354307347147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1117,19 +1117,19 @@
         <v>3070</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1117</v>
+        <v>1213</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7034</v>
+        <v>8299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01116251570544792</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004062250901779636</v>
+        <v>0.004410387051219435</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02557116961239388</v>
+        <v>0.03017293692783613</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1138,19 +1138,19 @@
         <v>11117</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6175</v>
+        <v>6310</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18929</v>
+        <v>18896</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01731658489147391</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009618809246219079</v>
+        <v>0.009828251471735893</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02948370958990035</v>
+        <v>0.02943248740468351</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>313894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283189</v>
+        <v>284040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>343149</v>
+        <v>340664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5051065736862108</v>
+        <v>0.5051065736862109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4556965483682867</v>
+        <v>0.4570655667918262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5521811491119053</v>
+        <v>0.5481833396602136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -1263,19 +1263,19 @@
         <v>222264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204026</v>
+        <v>201220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240056</v>
+        <v>240204</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4996253859618975</v>
+        <v>0.4996253859618974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4586267498112465</v>
+        <v>0.4523203358004057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5396191330535722</v>
+        <v>0.5399523309958381</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>528</v>
@@ -1284,19 +1284,19 @@
         <v>536159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>501438</v>
+        <v>500478</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569069</v>
+        <v>569562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5028198222359042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4702579200823149</v>
+        <v>0.4693573325083921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5336835907850107</v>
+        <v>0.5341462064508521</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>149903</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>127599</v>
+        <v>128547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175747</v>
+        <v>175897</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2412186180115725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2053273463980814</v>
+        <v>0.2068534345986753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2828057731479452</v>
+        <v>0.2830468309504817</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>187</v>
@@ -1334,19 +1334,19 @@
         <v>127031</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110128</v>
+        <v>112242</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>144047</v>
+        <v>145346</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2855510126069517</v>
+        <v>0.2855510126069516</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2475549416566619</v>
+        <v>0.2523072861194933</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3238015521192222</v>
+        <v>0.3267210378157412</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>323</v>
@@ -1355,19 +1355,19 @@
         <v>276934</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>249693</v>
+        <v>249377</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>303629</v>
+        <v>308568</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2597140924845345</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2341669150263638</v>
+        <v>0.2338707788831975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2847489103053116</v>
+        <v>0.2893813057119123</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>63763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47786</v>
+        <v>49224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85305</v>
+        <v>84400</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1026043268473988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07689502675665297</v>
+        <v>0.0792088322955893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1372695872343659</v>
+        <v>0.1358136663805782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1405,19 +1405,19 @@
         <v>37799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28496</v>
+        <v>27794</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48706</v>
+        <v>48580</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08496840759739227</v>
+        <v>0.08496840759739226</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06405648499093468</v>
+        <v>0.06247774451269403</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1094853260531283</v>
+        <v>0.109202315980564</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -1426,19 +1426,19 @@
         <v>101562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82926</v>
+        <v>81670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123876</v>
+        <v>124892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09524662155597936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07776987327444865</v>
+        <v>0.07659122250474033</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1161730981163613</v>
+        <v>0.117125938150761</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>50651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37322</v>
+        <v>35967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69443</v>
+        <v>69359</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08150525860985226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0600575258065791</v>
+        <v>0.05787588893489068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1117447901448813</v>
+        <v>0.1116094014767132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1476,19 +1476,19 @@
         <v>37036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27624</v>
+        <v>27307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47957</v>
+        <v>48972</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08325346845740163</v>
+        <v>0.08325346845740161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06209663064382885</v>
+        <v>0.06138338693068494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1078029360393088</v>
+        <v>0.1100828936067982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1497,19 +1497,19 @@
         <v>87687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69737</v>
+        <v>69283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107607</v>
+        <v>108925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08223461173647313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06540076745103754</v>
+        <v>0.06497527085870985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1009161545570827</v>
+        <v>0.1021519350131565</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>33129</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21822</v>
+        <v>22305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49532</v>
+        <v>47609</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05331057864495289</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03511457789110323</v>
+        <v>0.03589263683143239</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07970453380289287</v>
+        <v>0.07660981579369606</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -1547,19 +1547,19 @@
         <v>16175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10575</v>
+        <v>10806</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23840</v>
+        <v>23944</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.0363595493627649</v>
+        <v>0.03635954936276489</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02377089549277455</v>
+        <v>0.02428958683175462</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05358973730668908</v>
+        <v>0.0538242136079982</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -1568,19 +1568,19 @@
         <v>49304</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36334</v>
+        <v>37177</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66646</v>
+        <v>67223</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04623860943957597</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03407447142584243</v>
+        <v>0.03486495925050658</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0625016786888269</v>
+        <v>0.06304262561075967</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>10101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5173</v>
+        <v>4672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20240</v>
+        <v>19337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0162546442000127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00832498896120838</v>
+        <v>0.007517709842190535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03256863028568108</v>
+        <v>0.03111648751446856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1618,19 +1618,19 @@
         <v>4556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2038</v>
+        <v>1883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9577</v>
+        <v>9649</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01024217601359202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004580833702676835</v>
+        <v>0.004231970154611882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02152753512429739</v>
+        <v>0.02168962689240604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1639,19 +1639,19 @@
         <v>14658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8651</v>
+        <v>8258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24865</v>
+        <v>24339</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01374624254753281</v>
+        <v>0.0137462425475328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008113128652933597</v>
+        <v>0.007744317984689681</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02331922486199111</v>
+        <v>0.02282553704166458</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>269181</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>244660</v>
+        <v>242555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>290519</v>
+        <v>290920</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.646421250000256</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5875347524405862</v>
+        <v>0.5824792682296902</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6976625037311527</v>
+        <v>0.6986245332480812</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>254</v>
@@ -1764,19 +1764,19 @@
         <v>200665</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>183864</v>
+        <v>183644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217091</v>
+        <v>215728</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6022965480259784</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5518685702996999</v>
+        <v>0.5512061957772281</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6515967648180508</v>
+        <v>0.6475082334966769</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>472</v>
@@ -1785,19 +1785,19 @@
         <v>469847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>442960</v>
+        <v>437957</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>496885</v>
+        <v>497949</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.626809198578744</v>
+        <v>0.6268091985787438</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5909399213088743</v>
+        <v>0.5842655074508525</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6628796280642748</v>
+        <v>0.6643001083627315</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>79617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61654</v>
+        <v>62161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100366</v>
+        <v>101160</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1911956825461253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1480582616368843</v>
+        <v>0.1492760404952593</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2410223342792762</v>
+        <v>0.2429297063312186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -1835,19 +1835,19 @@
         <v>72105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59154</v>
+        <v>60334</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86578</v>
+        <v>87582</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2164215963846516</v>
+        <v>0.2164215963846517</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.177550925489648</v>
+        <v>0.1810909527504274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2598645840869321</v>
+        <v>0.2628760166443385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -1856,19 +1856,19 @@
         <v>151722</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127673</v>
+        <v>129611</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176605</v>
+        <v>178539</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2024078131038391</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1703242799493407</v>
+        <v>0.1729097881722106</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2356043274072723</v>
+        <v>0.2381835829776441</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>31688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20944</v>
+        <v>19906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48893</v>
+        <v>46637</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07609742715092901</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05029562743625551</v>
+        <v>0.04780374913925196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1174122615255834</v>
+        <v>0.1119954686518271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1909,16 +1909,16 @@
         <v>18619</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37133</v>
+        <v>36296</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07770250199642452</v>
+        <v>0.07770250199642453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05588489003864611</v>
+        <v>0.05588408277029848</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1114556207849571</v>
+        <v>0.1089411962361491</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1927,19 +1927,19 @@
         <v>57576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43499</v>
+        <v>43704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73842</v>
+        <v>76314</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07681083277174396</v>
+        <v>0.07681083277174394</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05803102535972699</v>
+        <v>0.05830477115561063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09851100796258108</v>
+        <v>0.1018089477000469</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>26229</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15625</v>
+        <v>16218</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40548</v>
+        <v>40999</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06298835067085597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03752236243167254</v>
+        <v>0.03894569338302505</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09737442075681459</v>
+        <v>0.09845568004906614</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -1977,19 +1977,19 @@
         <v>20667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13889</v>
+        <v>13516</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29487</v>
+        <v>30839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0620331307733935</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04168856778252886</v>
+        <v>0.04056965083604337</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08850542393736653</v>
+        <v>0.09256378955442386</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -1998,19 +1998,19 @@
         <v>46897</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34532</v>
+        <v>33827</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>62927</v>
+        <v>63625</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06256378527075862</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04606816813656637</v>
+        <v>0.04512761505323698</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08394866957940124</v>
+        <v>0.08488009993002392</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>3728</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10170</v>
+        <v>10179</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008953120311532194</v>
+        <v>0.008953120311532196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002635398769226038</v>
+        <v>0.00263680756698648</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02442186139317924</v>
+        <v>0.02444445114042849</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2048,19 +2048,19 @@
         <v>9881</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5418</v>
+        <v>5595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16312</v>
+        <v>16923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02965694742495358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01626341787431395</v>
+        <v>0.0167942130111719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04896038427876595</v>
+        <v>0.05079442185226705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2069,19 +2069,19 @@
         <v>13609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7794</v>
+        <v>8331</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22837</v>
+        <v>22167</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01815532460533614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0103982363367121</v>
+        <v>0.01111396334688526</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03046611886966896</v>
+        <v>0.02957293192982196</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>5973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2290</v>
+        <v>1257</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15575</v>
+        <v>15095</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01434416932030169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005499172121440426</v>
+        <v>0.003017849490483127</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0374030375879915</v>
+        <v>0.03624845111057155</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2119,19 +2119,19 @@
         <v>3961</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1423</v>
+        <v>1391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9525</v>
+        <v>8835</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01188927539459836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004272460999099829</v>
+        <v>0.004173802449746644</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02858911205889441</v>
+        <v>0.02651691156440286</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2140,19 +2140,19 @@
         <v>9934</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4896</v>
+        <v>4516</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21664</v>
+        <v>20525</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01325304566957839</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006531553690238017</v>
+        <v>0.00602413557634371</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02890146204217833</v>
+        <v>0.02738228493049474</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>301231</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>276500</v>
+        <v>276498</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>322769</v>
+        <v>323279</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5901763127655638</v>
+        <v>0.5901763127655636</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5417232564052696</v>
+        <v>0.5417187427313129</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6323726615529444</v>
+        <v>0.6333724534717138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>324</v>
@@ -2265,19 +2265,19 @@
         <v>251284</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>232900</v>
+        <v>232663</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>269225</v>
+        <v>269462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.567389463710935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5258795815363387</v>
+        <v>0.5253442184993171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.607898499863928</v>
+        <v>0.6084349339236886</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>594</v>
@@ -2286,19 +2286,19 @@
         <v>552515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>522312</v>
+        <v>522260</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>582581</v>
+        <v>582192</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5795899978340641</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5479072168874871</v>
+        <v>0.5478522536749011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6111287761783555</v>
+        <v>0.6107215573033445</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>132380</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112138</v>
+        <v>112974</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151510</v>
+        <v>153225</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2593606029155197</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2197021264581684</v>
+        <v>0.2213401004366456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2968402299707713</v>
+        <v>0.3001995885475628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -2336,19 +2336,19 @@
         <v>109197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>93743</v>
+        <v>95373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127005</v>
+        <v>126226</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2465622501814929</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2116677798853061</v>
+        <v>0.2153475109411409</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2867725253345537</v>
+        <v>0.2850141429038995</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>284</v>
@@ -2357,19 +2357,19 @@
         <v>241577</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>216310</v>
+        <v>216752</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269723</v>
+        <v>269584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.253414743866644</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2269094541014229</v>
+        <v>0.2273733826610384</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2829400477578092</v>
+        <v>0.2827943774669728</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>33366</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22348</v>
+        <v>22299</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48630</v>
+        <v>48126</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06537093610672162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04378363929952243</v>
+        <v>0.04368805490771841</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09527711224287662</v>
+        <v>0.09428813383840275</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>42</v>
@@ -2407,19 +2407,19 @@
         <v>33393</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>24181</v>
+        <v>24385</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44503</v>
+        <v>43978</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07539913028188996</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05460005828683342</v>
+        <v>0.05505979626576452</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1004865630934289</v>
+        <v>0.09929986789480563</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>72</v>
@@ -2428,19 +2428,19 @@
         <v>66758</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>51762</v>
+        <v>52540</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>85149</v>
+        <v>84946</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07002983481966138</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05429866697823454</v>
+        <v>0.05511417329988524</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0893219774727215</v>
+        <v>0.08910850941244325</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>16049</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9597</v>
+        <v>9046</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25691</v>
+        <v>25501</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03144333033131017</v>
+        <v>0.03144333033131016</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01880287505395705</v>
+        <v>0.01772225123102235</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05033484411403538</v>
+        <v>0.0499609730256681</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2478,19 +2478,19 @@
         <v>20816</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14938</v>
+        <v>14127</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29093</v>
+        <v>29425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04700076397762441</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03372890915485984</v>
+        <v>0.03189706555200285</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06568972251184646</v>
+        <v>0.06644076154938956</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -2499,19 +2499,19 @@
         <v>36865</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27408</v>
+        <v>27514</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49677</v>
+        <v>48498</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03867100326278712</v>
+        <v>0.03867100326278713</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02875065664681967</v>
+        <v>0.02886209005239933</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05211091525094406</v>
+        <v>0.05087476267586466</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>15691</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8998</v>
+        <v>9136</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24275</v>
+        <v>25775</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03074243830847908</v>
+        <v>0.03074243830847907</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.017629126959277</v>
+        <v>0.01789893536170565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0475608404800067</v>
+        <v>0.05049860601038036</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2549,19 +2549,19 @@
         <v>18017</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11992</v>
+        <v>12113</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26071</v>
+        <v>25465</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04068053044629395</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02707657227543507</v>
+        <v>0.02734996221599602</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0588665375973421</v>
+        <v>0.05749865722327484</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2570,19 +2570,19 @@
         <v>33708</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24468</v>
+        <v>23591</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47034</v>
+        <v>45558</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03535947741454178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0256671437934917</v>
+        <v>0.02474682504753337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04933916658107262</v>
+        <v>0.04779090840612254</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>11692</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5851</v>
+        <v>5949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19995</v>
+        <v>21757</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02290637957240584</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01146338442288399</v>
+        <v>0.01165597820966684</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03917376300681311</v>
+        <v>0.04262568776160721</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2620,19 +2620,19 @@
         <v>10172</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5772</v>
+        <v>5566</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16699</v>
+        <v>16472</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02296786140176389</v>
+        <v>0.0229678614017639</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01303234232511691</v>
+        <v>0.01256788226909442</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03770632564236088</v>
+        <v>0.03719278720100005</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -2641,19 +2641,19 @@
         <v>21864</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13966</v>
+        <v>13906</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31795</v>
+        <v>33395</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02293494280230168</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01465082425518042</v>
+        <v>0.01458729477148816</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03335309852788529</v>
+        <v>0.03503191231374337</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>1083224</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1031941</v>
+        <v>1035321</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1130721</v>
+        <v>1131781</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.565588209427545</v>
+        <v>0.5655882094275448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5388113465177544</v>
+        <v>0.5405763979395772</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5903878846393878</v>
+        <v>0.5909415681018216</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1055</v>
@@ -2766,19 +2766,19 @@
         <v>818305</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>785290</v>
+        <v>783090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>851248</v>
+        <v>853230</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5470086483121269</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5249390494954799</v>
+        <v>0.5234686128105104</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.569029540623523</v>
+        <v>0.5703547960692831</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1962</v>
@@ -2787,19 +2787,19 @@
         <v>1901529</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1841968</v>
+        <v>1838726</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1958644</v>
+        <v>1956380</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5574401941665393</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5399795928742995</v>
+        <v>0.5390290918891416</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5741836634032738</v>
+        <v>0.5735197035347304</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>442284</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>404211</v>
+        <v>401305</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>484464</v>
+        <v>484619</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2309316945108644</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2110521710581736</v>
+        <v>0.2095350931424396</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2529550091350483</v>
+        <v>0.2530360053385686</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>551</v>
@@ -2837,19 +2837,19 @@
         <v>383401</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>351827</v>
+        <v>355659</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>411907</v>
+        <v>414974</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2562901620242615</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2351842230256259</v>
+        <v>0.237745424402198</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2753457041242851</v>
+        <v>0.2773953873005728</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>963</v>
@@ -2858,19 +2858,19 @@
         <v>825685</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>774073</v>
+        <v>777767</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>873735</v>
+        <v>878098</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2420525804678214</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2269222867103202</v>
+        <v>0.2280051830073375</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2561386994124155</v>
+        <v>0.2574174908345568</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>158257</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>133264</v>
+        <v>131809</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>188484</v>
+        <v>187817</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08263155321068805</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06958172318189862</v>
+        <v>0.06882185017960474</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09841375209007956</v>
+        <v>0.09806573532806895</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -2908,19 +2908,19 @@
         <v>117621</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>100016</v>
+        <v>102112</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135473</v>
+        <v>138935</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07862550405810131</v>
+        <v>0.07862550405810133</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06685713236704413</v>
+        <v>0.06825833698102833</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09055930606746018</v>
+        <v>0.09287299514808985</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>291</v>
@@ -2929,19 +2929,19 @@
         <v>275878</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>243757</v>
+        <v>245712</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>311805</v>
+        <v>312140</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08087471140862156</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07145818433778978</v>
+        <v>0.07203149035342676</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09140690292228223</v>
+        <v>0.09150503931816158</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>128107</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>105144</v>
+        <v>106226</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>158040</v>
+        <v>156806</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06688909354565439</v>
+        <v>0.06688909354565438</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05489939242157472</v>
+        <v>0.05546430177212498</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08251805063016944</v>
+        <v>0.08187361127091394</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>131</v>
@@ -2979,19 +2979,19 @@
         <v>94948</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>79624</v>
+        <v>80375</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111118</v>
+        <v>112791</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06346948540632873</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05322576121462596</v>
+        <v>0.05372775830989177</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07427856508758678</v>
+        <v>0.07539690935128113</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>239</v>
@@ -3000,19 +3000,19 @@
         <v>223055</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>193978</v>
+        <v>193424</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>257492</v>
+        <v>254735</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06538943383180018</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05686533850815879</v>
+        <v>0.0567029193251651</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07548482990629103</v>
+        <v>0.07467654805212896</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>67531</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>51432</v>
+        <v>51108</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>91263</v>
+        <v>89282</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.03526020373268932</v>
+        <v>0.03526020373268931</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0268541859668175</v>
+        <v>0.02668548279567757</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04765147326681038</v>
+        <v>0.04661702028769171</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>77</v>
@@ -3050,19 +3050,19 @@
         <v>59929</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>47331</v>
+        <v>47613</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>76484</v>
+        <v>76236</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04006055864250933</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03163885218513731</v>
+        <v>0.03182764117094248</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05112692859245915</v>
+        <v>0.05096132738713476</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>134</v>
@@ -3071,19 +3071,19 @@
         <v>127460</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>107335</v>
+        <v>105449</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158118</v>
+        <v>151922</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03736538613288062</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03146558860840101</v>
+        <v>0.03091274113454428</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04635295956017618</v>
+        <v>0.04453660159640002</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>35813</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25341</v>
+        <v>24329</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52039</v>
+        <v>49572</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01869924557255889</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01323137866673619</v>
+        <v>0.01270274233167808</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02717126268112645</v>
+        <v>0.02588328412756818</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -3121,19 +3121,19 @@
         <v>21760</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>14935</v>
+        <v>14887</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31040</v>
+        <v>30609</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.01454564155667216</v>
+        <v>0.01454564155667217</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009983738425694666</v>
+        <v>0.009951132019085289</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02074944672351278</v>
+        <v>0.02046084718412717</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>62</v>
@@ -3142,19 +3142,19 @@
         <v>57573</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>43835</v>
+        <v>44883</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>73462</v>
+        <v>73033</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01687769399233697</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01285048844979436</v>
+        <v>0.01315763800288947</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0215355854188485</v>
+        <v>0.02140980299238061</v>
       </c>
     </row>
     <row r="38">
